--- a/Tests/Щелевой заряд/data_5.xlsx
+++ b/Tests/Щелевой заряд/data_5.xlsx
@@ -405,10 +405,10 @@
         <v>0.011</v>
       </c>
       <c r="C2">
-        <v>2.113</v>
+        <v>2.116</v>
       </c>
       <c r="D2">
-        <v>2432.868</v>
+        <v>2433.289</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.027</v>
       </c>
       <c r="C3">
-        <v>8.771000000000001</v>
+        <v>8.765000000000001</v>
       </c>
       <c r="D3">
-        <v>3260.253</v>
+        <v>3260.602</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -450,7 +450,7 @@
         <v>0.158</v>
       </c>
       <c r="D5">
-        <v>1967.118</v>
+        <v>1967.111</v>
       </c>
     </row>
   </sheetData>
